--- a/Demon Overwhelming Project/Assets/Resources/DataTables/PlotsExcel.xlsx
+++ b/Demon Overwhelming Project/Assets/Resources/DataTables/PlotsExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>对话id</t>
   </si>
@@ -24,6 +24,9 @@
     <t>对话内容</t>
   </si>
   <si>
+    <t>说话者的名字</t>
+  </si>
+  <si>
     <t>是否为最后一句</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
     <t>content_cn</t>
   </si>
   <si>
+    <t>speakerName</t>
+  </si>
+  <si>
     <t>isLast</t>
   </si>
   <si>
@@ -114,10 +120,10 @@
     <t>我的名字是恶魔领主</t>
   </si>
   <si>
-    <t>立绘-英雄-恶魔领主</t>
-  </si>
-  <si>
-    <t>立绘-英雄-吸血鬼</t>
+    <t>恶魔领主</t>
+  </si>
+  <si>
+    <t>黑暗神官</t>
   </si>
   <si>
     <t>年龄33岁</t>
@@ -126,7 +132,7 @@
     <t>家住在地狱北部</t>
   </si>
   <si>
-    <t>立绘-英雄-黑暗神官</t>
+    <t>吸血鬼</t>
   </si>
   <si>
     <t>赶紧炸吧</t>
@@ -138,16 +144,28 @@
     <t>不抽烟，酒也浅尝即止</t>
   </si>
   <si>
+    <t>哼哼啊啊啊啊啊</t>
+  </si>
+  <si>
     <t>每天去征服一个世界，医生都说我很健康</t>
   </si>
   <si>
-    <t>立绘-看板娘-魔女萨曼莎</t>
+    <t>萨曼莎</t>
   </si>
   <si>
     <t>我只想告诉你我想追求平静的生活</t>
   </si>
   <si>
+    <t>阿巴巴</t>
+  </si>
+  <si>
+    <t>阿巴阿巴</t>
+  </si>
+  <si>
     <t>不过真要打起来我也不会输给谁就是了</t>
+  </si>
+  <si>
+    <t>*DNA转录完毕</t>
   </si>
 </sst>
 </file>
@@ -1139,28 +1157,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="46.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="14.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="11.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="12.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="10.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="13.7777777777778" customWidth="1"/>
-    <col min="11" max="11" width="8.55555555555556" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="15.7777777777778" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="11.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="12.2222222222222" customWidth="1"/>
+    <col min="10" max="10" width="10.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="13.7777777777778" customWidth="1"/>
+    <col min="12" max="12" width="8.55555555555556" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="15.7777777777778" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
+    <row r="1" s="1" customFormat="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1203,116 +1222,125 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
+    <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:14">
+    <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>1000001</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1320,10 +1348,10 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
         <v>0</v>
       </c>
       <c r="L4">
@@ -1335,28 +1363,31 @@
       <c r="N4">
         <v>0</v>
       </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>1000002</v>
       </c>
       <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
+      <c r="D5" t="b">
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1364,10 +1395,10 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
         <v>0</v>
       </c>
       <c r="L5">
@@ -1379,25 +1410,28 @@
       <c r="N5">
         <v>0</v>
       </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>1000003</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1408,43 +1442,46 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" t="b">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
-        <v>37</v>
-      </c>
       <c r="L6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6">
         <v>1000006</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1000004</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>1000004</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1452,10 +1489,10 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
         <v>0</v>
       </c>
       <c r="L7">
@@ -1467,25 +1504,28 @@
       <c r="N7">
         <v>0</v>
       </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>1000005</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1496,10 +1536,10 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
         <v>0</v>
       </c>
       <c r="L8">
@@ -1511,25 +1551,28 @@
       <c r="N8">
         <v>0</v>
       </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>1000006</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1540,63 +1583,116 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1000007</v>
+      </c>
+      <c r="O9">
+        <v>1000001</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>1000007</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="b">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>1000008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="b">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>0</v>
       </c>
     </row>
